--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/IOWA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/IOWA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D614"/>
+  <dimension ref="A1:D608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASIENTOS</t>
+          <t>Asientos</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DE LOS ROMO</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -491,12 +491,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -548,12 +548,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -579,12 +579,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CALAKMUL</t>
+          <t>Calakmul</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21">
@@ -662,12 +662,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ALTAMIRANO</t>
+          <t>Altamirano</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>AMATÁN</t>
+          <t>Amatán</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOCHIL</t>
+          <t>Bochil</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHAPULTENANGO</t>
+          <t>Chapultenango</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>HUIXTÁN</t>
+          <t>Huixtán</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>MONTECRISTO DE GUERRERO</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>OCOZOCOAUTLA DE ESPINOSA</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO SOLISTAHUACÁN</t>
+          <t>Pueblo Nuevo Solistahuacán</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS DURAZNAL</t>
+          <t>San Andrés Duraznal</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TENEJAPA</t>
+          <t>Tenejapa</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>TUMBALÁ</t>
+          <t>Tumbalá</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,12 +1057,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AQUILES SERDÁN</t>
+          <t>Aquiles Serdán</t>
         </is>
       </c>
       <c r="C52">
@@ -1075,7 +1075,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C53">
@@ -1088,7 +1088,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C54">
@@ -1101,7 +1101,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C55">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C56">
@@ -1127,7 +1127,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>GUADALUPE Y CALVO</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C57">
@@ -1140,7 +1140,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C58">
@@ -1153,7 +1153,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C59">
@@ -1166,7 +1166,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C60">
@@ -1179,7 +1179,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANUEL BENAVIDES</t>
+          <t>Manuel Benavides</t>
         </is>
       </c>
       <c r="C61">
@@ -1192,7 +1192,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>MEOQUI</t>
+          <t>Meoqui</t>
         </is>
       </c>
       <c r="C62">
@@ -1205,7 +1205,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C63">
@@ -1218,7 +1218,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>RIVA PALACIO</t>
+          <t>Riva Palacio</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66">
@@ -1257,12 +1257,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C67">
@@ -1275,7 +1275,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C68">
@@ -1288,7 +1288,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C69">
@@ -1301,7 +1301,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C70">
@@ -1314,7 +1314,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C71">
@@ -1327,7 +1327,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C72">
@@ -1340,7 +1340,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C73">
@@ -1353,7 +1353,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C74">
@@ -1366,7 +1366,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C75">
@@ -1379,7 +1379,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C76">
@@ -1392,7 +1392,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>Milpa Alta</t>
         </is>
       </c>
       <c r="C77">
@@ -1405,7 +1405,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C78">
@@ -1418,7 +1418,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C79">
@@ -1431,7 +1431,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C80">
@@ -1444,7 +1444,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C81">
@@ -1457,7 +1457,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C82">
@@ -1470,12 +1470,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASTAÑOS</t>
+          <t>Castaños</t>
         </is>
       </c>
       <c r="C83">
@@ -1488,7 +1488,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C84">
@@ -1501,7 +1501,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C85">
@@ -1514,7 +1514,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C86">
@@ -1527,7 +1527,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C87">
@@ -1540,7 +1540,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C88">
@@ -1553,7 +1553,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>SAN JUAN DE SABINAS</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C89">
@@ -1566,7 +1566,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C90">
@@ -1579,7 +1579,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C91">
@@ -1592,7 +1592,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C92">
@@ -1605,12 +1605,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ARMERÍA</t>
+          <t>Armería</t>
         </is>
       </c>
       <c r="C93">
@@ -1623,7 +1623,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C94">
@@ -1636,7 +1636,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>COQUIMATLÁN</t>
+          <t>Coquimatlán</t>
         </is>
       </c>
       <c r="C95">
@@ -1649,7 +1649,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C96">
@@ -1662,7 +1662,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C97">
@@ -1675,7 +1675,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>VILLA DE ÁLVAREZ</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C98">
@@ -1688,7 +1688,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C99">
@@ -1701,12 +1701,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C100">
@@ -1719,7 +1719,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C101">
@@ -1732,7 +1732,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C102">
@@ -1745,7 +1745,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C103">
@@ -1758,7 +1758,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C104">
@@ -1771,7 +1771,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>GUANACEVÍ</t>
+          <t>Guanaceví</t>
         </is>
       </c>
       <c r="C105">
@@ -1784,7 +1784,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C106">
@@ -1797,7 +1797,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>INDÉ</t>
+          <t>Indé</t>
         </is>
       </c>
       <c r="C107">
@@ -1810,7 +1810,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C108">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C109">
@@ -1836,7 +1836,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>NOMBRE DE DIOS</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C110">
@@ -1849,7 +1849,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>NUEVO IDEAL</t>
+          <t>Nuevo Ideal</t>
         </is>
       </c>
       <c r="C111">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>PEÑÓN BLANCO</t>
+          <t>Peñón Blanco</t>
         </is>
       </c>
       <c r="C112">
@@ -1875,7 +1875,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C113">
@@ -1888,7 +1888,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C114">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>TEPEHUANES</t>
+          <t>Tepehuanes</t>
         </is>
       </c>
       <c r="C115">
@@ -1914,7 +1914,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>TLAHUALILO</t>
+          <t>Tlahualilo</t>
         </is>
       </c>
       <c r="C116">
@@ -1927,7 +1927,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C117">
@@ -1940,12 +1940,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C118">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>ACOLMAN</t>
+          <t>Acolman</t>
         </is>
       </c>
       <c r="C119">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C120">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C121">
@@ -1997,7 +1997,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>ATIZAPÁN</t>
+          <t>Atizapán</t>
         </is>
       </c>
       <c r="C122">
@@ -2010,7 +2010,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C123">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C124">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>CHICOLOAPAN</t>
+          <t>Chicoloapan</t>
         </is>
       </c>
       <c r="C125">
@@ -2049,7 +2049,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C126">
@@ -2062,7 +2062,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2075,7 +2075,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECATZINGO</t>
+          <t>Ecatzingo</t>
         </is>
       </c>
       <c r="C128">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C129">
@@ -2101,7 +2101,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C130">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>OTZOLOAPAN</t>
+          <t>Otzoloapan</t>
         </is>
       </c>
       <c r="C135">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C136">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C137">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C139">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C140">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C141">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>VALLE DE BRAVO</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C144">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C145">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C146">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>XONACATLÁN</t>
+          <t>Xonacatlán</t>
         </is>
       </c>
       <c r="C147">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>Zinacantepec</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>ZUMPANGO</t>
+          <t>Zumpango</t>
         </is>
       </c>
       <c r="C149">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,12 +2374,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C151">
@@ -2392,7 +2392,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C152">
@@ -2405,7 +2405,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C153">
@@ -2418,7 +2418,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C154">
@@ -2431,7 +2431,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C155">
@@ -2444,7 +2444,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C156">
@@ -2457,7 +2457,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C157">
@@ -2470,7 +2470,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>HUANÍMARO</t>
+          <t>Huanímaro</t>
         </is>
       </c>
       <c r="C158">
@@ -2483,7 +2483,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C159">
@@ -2496,7 +2496,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C160">
@@ -2509,7 +2509,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C161">
@@ -2522,7 +2522,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C162">
@@ -2535,7 +2535,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C163">
@@ -2548,7 +2548,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C164">
@@ -2561,7 +2561,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C165">
@@ -2574,7 +2574,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C166">
@@ -2587,7 +2587,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C167">
@@ -2600,7 +2600,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C168">
@@ -2613,7 +2613,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C169">
@@ -2626,7 +2626,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C170">
@@ -2639,7 +2639,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C171">
@@ -2652,7 +2652,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C172">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>TARANDACUAO</t>
+          <t>Tarandacuao</t>
         </is>
       </c>
       <c r="C173">
@@ -2678,7 +2678,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C174">
@@ -2691,7 +2691,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C175">
@@ -2704,7 +2704,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C176">
@@ -2717,7 +2717,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C177">
@@ -2730,12 +2730,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C178">
@@ -2748,7 +2748,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C179">
@@ -2761,7 +2761,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
+          <t>Alpoyeca</t>
         </is>
       </c>
       <c r="C180">
@@ -2774,7 +2774,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C181">
@@ -2787,7 +2787,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C182">
@@ -2800,7 +2800,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C183">
@@ -2813,7 +2813,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C184">
@@ -2826,7 +2826,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>BUENAVISTA DE CUÉLLAR</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C185">
@@ -2839,7 +2839,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C186">
@@ -2852,7 +2852,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C187">
@@ -2865,7 +2865,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>COAHUAYUTLA DE JOSÉ MARÍA IZAZAGA</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C188">
@@ -2878,7 +2878,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C189">
@@ -2891,7 +2891,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C190">
@@ -2904,7 +2904,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C191">
@@ -2917,7 +2917,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C192">
@@ -2930,7 +2930,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C193">
@@ -2943,7 +2943,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C194">
@@ -2956,7 +2956,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C195">
@@ -2969,7 +2969,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C196">
@@ -2982,7 +2982,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C197">
@@ -2995,7 +2995,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C198">
@@ -3008,7 +3008,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C199">
@@ -3021,7 +3021,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C200">
@@ -3034,7 +3034,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C201">
@@ -3047,7 +3047,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>IXCATEOPAN DE CUAUHTÉMOC</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C202">
@@ -3060,7 +3060,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C203">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C204">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C205">
@@ -3099,7 +3099,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>MARQUELIA</t>
+          <t>Marquelia</t>
         </is>
       </c>
       <c r="C206">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C208">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C211">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C213">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C214">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C216">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>TLALCHAPA</t>
+          <t>Tlalchapa</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>TLALIXTAQUILLA DE MALDONADO</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C220">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C222">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C223">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C224">
@@ -3346,12 +3346,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C225">
@@ -3364,7 +3364,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>ACAXOCHITLÁN</t>
+          <t>Acaxochitlán</t>
         </is>
       </c>
       <c r="C226">
@@ -3377,7 +3377,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>AGUA BLANCA DE ITURBIDE</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C227">
@@ -3390,7 +3390,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C228">
@@ -3403,7 +3403,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C229">
@@ -3416,7 +3416,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C230">
@@ -3429,7 +3429,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>JACALA DE LEDEZMA</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C231">
@@ -3442,7 +3442,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>JUÁREZ HIDALGO</t>
+          <t>Juárez Hidalgo</t>
         </is>
       </c>
       <c r="C232">
@@ -3455,7 +3455,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C233">
@@ -3468,7 +3468,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C234">
@@ -3481,7 +3481,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C235">
@@ -3494,7 +3494,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3507,7 +3507,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C237">
@@ -3520,7 +3520,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>SAN SALVADOR</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="C238">
@@ -3533,7 +3533,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>SINGUILUCAN</t>
+          <t>Singuilucan</t>
         </is>
       </c>
       <c r="C239">
@@ -3546,7 +3546,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C240">
@@ -3559,7 +3559,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C241">
@@ -3572,7 +3572,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C242">
@@ -3585,7 +3585,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>ZEMPOALA</t>
+          <t>Zempoala</t>
         </is>
       </c>
       <c r="C243">
@@ -3598,7 +3598,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C244">
@@ -3611,7 +3611,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C245">
@@ -3624,12 +3624,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ACATIC</t>
+          <t>Acatic</t>
         </is>
       </c>
       <c r="C246">
@@ -3642,7 +3642,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>AMACUECA</t>
+          <t>Amacueca</t>
         </is>
       </c>
       <c r="C247">
@@ -3655,7 +3655,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C248">
@@ -3668,7 +3668,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>ATENGO</t>
+          <t>Atengo</t>
         </is>
       </c>
       <c r="C249">
@@ -3681,7 +3681,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C250">
@@ -3694,7 +3694,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C251">
@@ -3707,7 +3707,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C252">
@@ -3720,7 +3720,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C253">
@@ -3733,7 +3733,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C254">
@@ -3746,7 +3746,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C255">
@@ -3759,7 +3759,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C256">
@@ -3772,7 +3772,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C257">
@@ -3785,7 +3785,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>EL GRULLO</t>
+          <t>El Grullo</t>
         </is>
       </c>
       <c r="C258">
@@ -3798,7 +3798,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C259">
@@ -3811,7 +3811,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>ETZATLÁN</t>
+          <t>Etzatlán</t>
         </is>
       </c>
       <c r="C260">
@@ -3824,7 +3824,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>GUACHINANGO</t>
+          <t>Guachinango</t>
         </is>
       </c>
       <c r="C261">
@@ -3837,7 +3837,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C262">
@@ -3850,7 +3850,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>HUEJUQUILLA EL ALTO</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C263">
@@ -3863,7 +3863,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C264">
@@ -3876,7 +3876,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>JAMAY</t>
+          <t>Jamay</t>
         </is>
       </c>
       <c r="C265">
@@ -3889,7 +3889,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C266">
@@ -3902,7 +3902,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>JUANACATLÁN</t>
+          <t>Juanacatlán</t>
         </is>
       </c>
       <c r="C267">
@@ -3915,7 +3915,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C268">
@@ -3928,7 +3928,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>LA HUERTA</t>
+          <t>La Huerta</t>
         </is>
       </c>
       <c r="C269">
@@ -3941,7 +3941,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>LA MANZANILLA DE LA PAZ</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C270">
@@ -3954,7 +3954,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C271">
@@ -3967,7 +3967,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C272">
@@ -3980,7 +3980,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>MEXTICACÁN</t>
+          <t>Mexticacán</t>
         </is>
       </c>
       <c r="C273">
@@ -3993,7 +3993,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>MIXTLÁN</t>
+          <t>Mixtlán</t>
         </is>
       </c>
       <c r="C274">
@@ -4006,7 +4006,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C275">
@@ -4019,7 +4019,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C276">
@@ -4032,7 +4032,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C277">
@@ -4045,7 +4045,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LA BARRANCA</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C278">
@@ -4058,7 +4058,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE ALEJANDRÍA</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C279">
@@ -4071,7 +4071,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>SAN GABRIEL</t>
+          <t>San Gabriel</t>
         </is>
       </c>
       <c r="C280">
@@ -4084,7 +4084,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>SAN IGNACIO CERRO GORDO</t>
+          <t>San Ignacio Cerro Gordo</t>
         </is>
       </c>
       <c r="C281">
@@ -4097,7 +4097,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>SAN JULIÁN</t>
+          <t>San Julián</t>
         </is>
       </c>
       <c r="C282">
@@ -4110,7 +4110,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE BOLAÑOS</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C283">
@@ -4123,7 +4123,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C284">
@@ -4136,7 +4136,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C285">
@@ -4149,7 +4149,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN DEL OESTE</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C286">
@@ -4162,7 +4162,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>SAYULA</t>
+          <t>Sayula</t>
         </is>
       </c>
       <c r="C287">
@@ -4175,7 +4175,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C288">
@@ -4188,7 +4188,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>TENAMAXTLÁN</t>
+          <t>Tenamaxtlán</t>
         </is>
       </c>
       <c r="C289">
@@ -4201,7 +4201,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C290">
@@ -4214,7 +4214,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C291">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C292">
@@ -4240,7 +4240,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C293">
@@ -4253,7 +4253,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>TOTATICHE</t>
+          <t>Totatiche</t>
         </is>
       </c>
       <c r="C294">
@@ -4266,7 +4266,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>Tototlán</t>
         </is>
       </c>
       <c r="C295">
@@ -4279,7 +4279,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>TUXCUECA</t>
+          <t>Tuxcueca</t>
         </is>
       </c>
       <c r="C296">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C297">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C298">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C299">
@@ -4331,7 +4331,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C300">
@@ -4344,7 +4344,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C301">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C302">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C303">
@@ -4383,12 +4383,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ANGAMACUTIRO</t>
+          <t>Angamacutiro</t>
         </is>
       </c>
       <c r="C304">
@@ -4401,7 +4401,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C305">
@@ -4414,7 +4414,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C306">
@@ -4427,7 +4427,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C307">
@@ -4440,7 +4440,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C308">
@@ -4453,7 +4453,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>COJUMATLÁN DE RÉGULES</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C309">
@@ -4466,7 +4466,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C310">
@@ -4479,7 +4479,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>CUITZEO</t>
+          <t>Cuitzeo</t>
         </is>
       </c>
       <c r="C311">
@@ -4492,7 +4492,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C312">
@@ -4505,7 +4505,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C313">
@@ -4518,7 +4518,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C314">
@@ -4531,7 +4531,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>JACONA</t>
+          <t>Jacona</t>
         </is>
       </c>
       <c r="C315">
@@ -4544,7 +4544,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C316">
@@ -4557,7 +4557,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C317">
@@ -4570,7 +4570,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C318">
@@ -4583,7 +4583,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C319">
@@ -4596,7 +4596,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C320">
@@ -4609,7 +4609,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C321">
@@ -4622,7 +4622,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C322">
@@ -4635,7 +4635,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C323">
@@ -4648,7 +4648,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>NUMARÁN</t>
+          <t>Numarán</t>
         </is>
       </c>
       <c r="C324">
@@ -4661,7 +4661,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C325">
@@ -4674,7 +4674,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C326">
@@ -4687,7 +4687,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C327">
@@ -4700,7 +4700,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C328">
@@ -4713,7 +4713,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C329">
@@ -4726,7 +4726,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C330">
@@ -4739,7 +4739,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>TANHUATO</t>
+          <t>Tanhuato</t>
         </is>
       </c>
       <c r="C331">
@@ -4752,7 +4752,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C332">
@@ -4765,7 +4765,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C333">
@@ -4778,7 +4778,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>TUMBISCATÍO</t>
+          <t>Tumbiscatío</t>
         </is>
       </c>
       <c r="C334">
@@ -4791,7 +4791,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C335">
@@ -4804,7 +4804,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C336">
@@ -4817,7 +4817,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C337">
@@ -4830,7 +4830,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C338">
@@ -4843,7 +4843,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C339">
@@ -4856,7 +4856,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C340">
@@ -4869,7 +4869,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C341">
@@ -4882,7 +4882,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C342">
@@ -4895,7 +4895,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C343">
@@ -4908,7 +4908,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C344">
@@ -4921,12 +4921,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C345">
@@ -4939,7 +4939,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C346">
@@ -4952,7 +4952,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>JANTETELCO</t>
+          <t>Jantetelco</t>
         </is>
       </c>
       <c r="C347">
@@ -4965,7 +4965,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C348">
@@ -4978,7 +4978,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C349">
@@ -4991,7 +4991,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C350">
@@ -5004,7 +5004,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C351">
@@ -5017,7 +5017,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C352">
@@ -5030,7 +5030,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C353">
@@ -5043,7 +5043,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C354">
@@ -5056,7 +5056,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C355">
@@ -5069,12 +5069,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C356">
@@ -5087,7 +5087,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>AMATLÁN DE CAÑAS</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C357">
@@ -5100,7 +5100,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C358">
@@ -5113,7 +5113,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C359">
@@ -5126,7 +5126,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>ROSAMORADA</t>
+          <t>Rosamorada</t>
         </is>
       </c>
       <c r="C360">
@@ -5139,7 +5139,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>RUÍZ</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="C361">
@@ -5152,7 +5152,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C362">
@@ -5165,7 +5165,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C363">
@@ -5178,7 +5178,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C364">
@@ -5191,7 +5191,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C365">
@@ -5204,12 +5204,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C366">
@@ -5222,7 +5222,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C367">
@@ -5235,12 +5235,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>COSOLAPA</t>
+          <t>Cosolapa</t>
         </is>
       </c>
       <c r="C368">
@@ -5253,7 +5253,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE EJUTLA DE CRESPO</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C369">
@@ -5266,7 +5266,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C370">
@@ -5279,7 +5279,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C371">
@@ -5292,7 +5292,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C372">
@@ -5305,7 +5305,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>LA COMPAÑÍA</t>
+          <t>La Compañía</t>
         </is>
       </c>
       <c r="C373">
@@ -5318,7 +5318,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C374">
@@ -5331,7 +5331,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C375">
@@ -5344,7 +5344,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>NAZARENO ETLA</t>
+          <t>Nazareno Etla</t>
         </is>
       </c>
       <c r="C376">
@@ -5357,7 +5357,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C377">
@@ -5370,7 +5370,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C378">
@@ -5383,7 +5383,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN AMATENGO</t>
+          <t>San Agustín Amatengo</t>
         </is>
       </c>
       <c r="C379">
@@ -5396,7 +5396,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN ATENANGO</t>
+          <t>San Agustín Atenango</t>
         </is>
       </c>
       <c r="C380">
@@ -5409,7 +5409,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TEOTILÁLPAM</t>
+          <t>San Andrés Teotilálpam</t>
         </is>
       </c>
       <c r="C381">
@@ -5422,7 +5422,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>SAN ANTONINO EL ALTO</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C382">
@@ -5435,7 +5435,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>SAN ANTONIO HUITEPEC</t>
+          <t>San Antonio Huitepec</t>
         </is>
       </c>
       <c r="C383">
@@ -5448,7 +5448,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>SAN GABRIEL MIXTEPEC</t>
+          <t>San Gabriel Mixtepec</t>
         </is>
       </c>
       <c r="C384">
@@ -5461,7 +5461,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO SILACAYOAPILLA</t>
+          <t>San Jerónimo Silacayoapilla</t>
         </is>
       </c>
       <c r="C385">
@@ -5474,7 +5474,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C386">
@@ -5487,7 +5487,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TLACOATZINTEPEC</t>
+          <t>San Juan Bautista Tlacoatzintepec</t>
         </is>
       </c>
       <c r="C387">
@@ -5500,7 +5500,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C388">
@@ -5513,7 +5513,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C389">
@@ -5526,7 +5526,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>SAN JUAN CACAHUATEPEC</t>
+          <t>San Juan Cacahuatepec</t>
         </is>
       </c>
       <c r="C390">
@@ -5539,7 +5539,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>SAN JUAN JUQUILA MIXES</t>
+          <t>San Juan Juquila Mixes</t>
         </is>
       </c>
       <c r="C391">
@@ -5552,7 +5552,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>SAN JUAN LALANA</t>
+          <t>San Juan Lalana</t>
         </is>
       </c>
       <c r="C392">
@@ -5565,7 +5565,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>SAN JUAN QUIAHIJE</t>
+          <t>San Juan Quiahije</t>
         </is>
       </c>
       <c r="C393">
@@ -5578,7 +5578,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>SAN LORENZO TEXMELÚCAN</t>
+          <t>San Lorenzo Texmelúcan</t>
         </is>
       </c>
       <c r="C394">
@@ -5591,7 +5591,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>SAN MIGUEL AMATITLÁN</t>
+          <t>San Miguel Amatitlán</t>
         </is>
       </c>
       <c r="C395">
@@ -5604,7 +5604,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>SAN MIGUEL PANIXTLAHUACA</t>
+          <t>San Miguel Panixtlahuaca</t>
         </is>
       </c>
       <c r="C396">
@@ -5617,7 +5617,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>SAN MIGUEL QUETZALTEPEC</t>
+          <t>San Miguel Quetzaltepec</t>
         </is>
       </c>
       <c r="C397">
@@ -5630,7 +5630,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SOYALTEPEC</t>
+          <t>San Miguel Soyaltepec</t>
         </is>
       </c>
       <c r="C398">
@@ -5643,7 +5643,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SUCHIXTEPEC</t>
+          <t>San Miguel Suchixtepec</t>
         </is>
       </c>
       <c r="C399">
@@ -5656,7 +5656,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>SAN PABLO CUATRO VENADOS</t>
+          <t>San Pablo Cuatro Venados</t>
         </is>
       </c>
       <c r="C400">
@@ -5669,7 +5669,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>SAN PEDRO AMUZGOS</t>
+          <t>San Pedro Amuzgos</t>
         </is>
       </c>
       <c r="C401">
@@ -5682,7 +5682,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C402">
@@ -5695,7 +5695,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>SAN PEDRO YÓLOX</t>
+          <t>San Pedro Yólox</t>
         </is>
       </c>
       <c r="C403">
@@ -5708,7 +5708,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>SAN VICENTE COATLÁN</t>
+          <t>San Vicente Coatlán</t>
         </is>
       </c>
       <c r="C404">
@@ -5721,7 +5721,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="C405">
@@ -5734,7 +5734,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C406">
@@ -5747,7 +5747,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>SANTA CRUZ TACACHE DE MINA</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C407">
@@ -5760,7 +5760,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CHIMALAPA</t>
+          <t>Santa María Chimalapa</t>
         </is>
       </c>
       <c r="C408">
@@ -5773,7 +5773,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C409">
@@ -5786,7 +5786,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C410">
@@ -5799,7 +5799,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEMAXCALTEPEC</t>
+          <t>Santa María Temaxcaltepec</t>
         </is>
       </c>
       <c r="C411">
@@ -5812,7 +5812,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>SANTIAGO AYUQUILILLA</t>
+          <t>Santiago Ayuquililla</t>
         </is>
       </c>
       <c r="C412">
@@ -5825,7 +5825,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C413">
@@ -5838,7 +5838,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C414">
@@ -5851,7 +5851,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C415">
@@ -5864,7 +5864,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>SANTIAGO NILTEPEC</t>
+          <t>Santiago Niltepec</t>
         </is>
       </c>
       <c r="C416">
@@ -5877,7 +5877,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C417">
@@ -5890,7 +5890,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>SANTIAGO TAMAZOLA</t>
+          <t>Santiago Tamazola</t>
         </is>
       </c>
       <c r="C418">
@@ -5903,7 +5903,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>SANTIAGO YAITEPEC</t>
+          <t>Santiago Yaitepec</t>
         </is>
       </c>
       <c r="C419">
@@ -5916,7 +5916,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TONALÁ</t>
+          <t>Santo Domingo Tonalá</t>
         </is>
       </c>
       <c r="C420">
@@ -5929,7 +5929,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C421">
@@ -5942,7 +5942,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C422">
@@ -5955,7 +5955,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>TEZOATLÁN DE SEGURA Y LUNA</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C423">
@@ -5968,7 +5968,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C424">
@@ -5981,7 +5981,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRINIDAD ZAACHILA</t>
+          <t>Trinidad Zaachila</t>
         </is>
       </c>
       <c r="C425">
@@ -5994,7 +5994,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>VILLA DE TAMAZULÁPAM DEL PROGRESO</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C426">
@@ -6007,7 +6007,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C427">
@@ -6020,7 +6020,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C428">
@@ -6033,7 +6033,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>VILLA DE ZAACHILA</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C429">
@@ -6046,7 +6046,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C430">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C431">
@@ -6072,12 +6072,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C432">
@@ -6090,7 +6090,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>AHUAZOTEPEC</t>
+          <t>Ahuazotepec</t>
         </is>
       </c>
       <c r="C433">
@@ -6103,7 +6103,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C434">
@@ -6116,7 +6116,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C435">
@@ -6129,7 +6129,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C436">
@@ -6142,7 +6142,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>ATOYATEMPAN</t>
+          <t>Atoyatempan</t>
         </is>
       </c>
       <c r="C437">
@@ -6155,7 +6155,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>CALPAN</t>
+          <t>Calpan</t>
         </is>
       </c>
       <c r="C438">
@@ -6168,7 +6168,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C439">
@@ -6181,7 +6181,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>CHICONCUAUTLA</t>
+          <t>Chiconcuautla</t>
         </is>
       </c>
       <c r="C440">
@@ -6194,7 +6194,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C441">
@@ -6207,7 +6207,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>GENERAL FELIPE ÁNGELES</t>
+          <t>General Felipe Ángeles</t>
         </is>
       </c>
       <c r="C442">
@@ -6220,7 +6220,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C443">
@@ -6233,7 +6233,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C444">
@@ -6246,7 +6246,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C445">
@@ -6259,7 +6259,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C446">
@@ -6272,7 +6272,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>Jalpan</t>
         </is>
       </c>
       <c r="C447">
@@ -6285,7 +6285,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>JUAN GALINDO</t>
+          <t>Juan Galindo</t>
         </is>
       </c>
       <c r="C448">
@@ -6298,7 +6298,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>JUAN N. MÉNDEZ</t>
+          <t>Juan N. Méndez</t>
         </is>
       </c>
       <c r="C449">
@@ -6311,7 +6311,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C450">
@@ -6324,7 +6324,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>MOLCAXAC</t>
+          <t>Molcaxac</t>
         </is>
       </c>
       <c r="C451">
@@ -6337,7 +6337,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C452">
@@ -6350,7 +6350,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>QUIMIXTLÁN</t>
+          <t>Quimixtlán</t>
         </is>
       </c>
       <c r="C453">
@@ -6363,7 +6363,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>SAN GABRIEL CHILAC</t>
+          <t>San Gabriel Chilac</t>
         </is>
       </c>
       <c r="C454">
@@ -6376,7 +6376,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C455">
@@ -6389,7 +6389,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>SAN MATÍAS TLALANCALECA</t>
+          <t>San Matías Tlalancaleca</t>
         </is>
       </c>
       <c r="C456">
@@ -6402,7 +6402,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>SAN PABLO ANICANO</t>
+          <t>San Pablo Anicano</t>
         </is>
       </c>
       <c r="C457">
@@ -6415,7 +6415,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C458">
@@ -6428,7 +6428,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C459">
@@ -6441,7 +6441,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>TEPETZINTLA</t>
+          <t>Tepetzintla</t>
         </is>
       </c>
       <c r="C460">
@@ -6454,7 +6454,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C461">
@@ -6467,7 +6467,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C462">
@@ -6480,7 +6480,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C463">
@@ -6493,7 +6493,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>TLAPACOYA</t>
+          <t>Tlapacoya</t>
         </is>
       </c>
       <c r="C464">
@@ -6506,7 +6506,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C465">
@@ -6519,7 +6519,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C466">
@@ -6532,7 +6532,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>ZIHUATEUTLA</t>
+          <t>Zihuateutla</t>
         </is>
       </c>
       <c r="C467">
@@ -6545,7 +6545,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C468">
@@ -6558,12 +6558,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C469">
@@ -6576,7 +6576,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C470">
@@ -6589,7 +6589,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>EZEQUIEL MONTES</t>
+          <t>Ezequiel Montes</t>
         </is>
       </c>
       <c r="C471">
@@ -6602,7 +6602,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>HUIMILPAN</t>
+          <t>Huimilpan</t>
         </is>
       </c>
       <c r="C472">
@@ -6615,7 +6615,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>PEDRO ESCOBEDO</t>
+          <t>Pedro Escobedo</t>
         </is>
       </c>
       <c r="C473">
@@ -6628,7 +6628,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C474">
@@ -6641,7 +6641,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C475">
@@ -6654,7 +6654,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C476">
@@ -6667,7 +6667,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
+          <t>Tequisquiapan</t>
         </is>
       </c>
       <c r="C477">
@@ -6680,7 +6680,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C478">
@@ -6693,12 +6693,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CEDRAL</t>
+          <t>Cedral</t>
         </is>
       </c>
       <c r="C479">
@@ -6711,7 +6711,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>CERRITOS</t>
+          <t>Cerritos</t>
         </is>
       </c>
       <c r="C480">
@@ -6724,7 +6724,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C481">
@@ -6737,7 +6737,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C482">
@@ -6750,7 +6750,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C483">
@@ -6763,7 +6763,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C484">
@@ -6776,7 +6776,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>MATLAPA</t>
+          <t>Matlapa</t>
         </is>
       </c>
       <c r="C485">
@@ -6789,7 +6789,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C486">
@@ -6802,7 +6802,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C487">
@@ -6815,7 +6815,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C488">
@@ -6828,7 +6828,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C489">
@@ -6841,7 +6841,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C490">
@@ -6854,7 +6854,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C491">
@@ -6867,7 +6867,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C492">
@@ -6880,7 +6880,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C493">
@@ -6893,12 +6893,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C494">
@@ -6911,7 +6911,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>BADIRAGUATO</t>
+          <t>Badiraguato</t>
         </is>
       </c>
       <c r="C495">
@@ -6924,7 +6924,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C496">
@@ -6937,7 +6937,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C497">
@@ -6950,7 +6950,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C498">
@@ -6963,7 +6963,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C499">
@@ -6976,7 +6976,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C500">
@@ -6989,12 +6989,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C501">
@@ -7007,7 +7007,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>GUAYMAS</t>
+          <t>Guaymas</t>
         </is>
       </c>
       <c r="C502">
@@ -7020,7 +7020,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>NAVOJOA</t>
+          <t>Navojoa</t>
         </is>
       </c>
       <c r="C503">
@@ -7033,7 +7033,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C504">
@@ -7046,12 +7046,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C505">
@@ -7064,7 +7064,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C506">
@@ -7077,7 +7077,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C507">
@@ -7090,7 +7090,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C508">
@@ -7103,7 +7103,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C509">
@@ -7116,7 +7116,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>JALPA DE MÉNDEZ</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C510">
@@ -7129,7 +7129,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C511">
@@ -7142,12 +7142,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C512">
@@ -7160,7 +7160,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C513">
@@ -7173,7 +7173,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>GONZÁLEZ</t>
+          <t>González</t>
         </is>
       </c>
       <c r="C514">
@@ -7186,7 +7186,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C515">
@@ -7199,7 +7199,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C516">
@@ -7212,7 +7212,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C517">
@@ -7225,7 +7225,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>MIQUIHUANA</t>
+          <t>Miquihuana</t>
         </is>
       </c>
       <c r="C518">
@@ -7238,7 +7238,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C519">
@@ -7251,7 +7251,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C520">
@@ -7264,7 +7264,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C521">
@@ -7277,7 +7277,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>SOTO LA MARINA</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C522">
@@ -7290,7 +7290,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C523">
@@ -7303,7 +7303,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C524">
@@ -7316,7 +7316,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>VALLE HERMOSO</t>
+          <t>Valle Hermoso</t>
         </is>
       </c>
       <c r="C525">
@@ -7329,7 +7329,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C526">
@@ -7342,7 +7342,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C527">
@@ -7355,12 +7355,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C528">
@@ -7373,7 +7373,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>PANOTLA</t>
+          <t>Panotla</t>
         </is>
       </c>
       <c r="C529">
@@ -7386,7 +7386,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C530">
@@ -7399,7 +7399,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C531">
@@ -7412,12 +7412,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C532">
@@ -7430,7 +7430,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>ATZACAN</t>
+          <t>Atzacan</t>
         </is>
       </c>
       <c r="C533">
@@ -7443,7 +7443,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>AYAHUALULCO</t>
+          <t>Ayahualulco</t>
         </is>
       </c>
       <c r="C534">
@@ -7456,7 +7456,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C535">
@@ -7469,7 +7469,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>COLIPA</t>
+          <t>Colipa</t>
         </is>
       </c>
       <c r="C536">
@@ -7482,7 +7482,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>COMAPA</t>
+          <t>Comapa</t>
         </is>
       </c>
       <c r="C537">
@@ -7495,7 +7495,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C538">
@@ -7508,7 +7508,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>COSOLEACAQUE</t>
+          <t>Cosoleacaque</t>
         </is>
       </c>
       <c r="C539">
@@ -7521,7 +7521,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C540">
@@ -7534,7 +7534,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C541">
@@ -7547,7 +7547,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C542">
@@ -7560,7 +7560,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C543">
@@ -7573,7 +7573,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C544">
@@ -7586,7 +7586,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C545">
@@ -7599,7 +7599,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C546">
@@ -7612,7 +7612,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>JAMAPA</t>
+          <t>Jamapa</t>
         </is>
       </c>
       <c r="C547">
@@ -7625,7 +7625,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C548">
@@ -7638,7 +7638,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C549">
@@ -7651,7 +7651,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C550">
@@ -7664,7 +7664,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C551">
@@ -7677,7 +7677,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C552">
@@ -7690,7 +7690,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C553">
@@ -7703,7 +7703,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C554">
@@ -7716,7 +7716,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>NAOLINCO</t>
+          <t>Naolinco</t>
         </is>
       </c>
       <c r="C555">
@@ -7729,7 +7729,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>NAUTLA</t>
+          <t>Nautla</t>
         </is>
       </c>
       <c r="C556">
@@ -7742,7 +7742,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C557">
@@ -7755,7 +7755,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C558">
@@ -7768,7 +7768,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C559">
@@ -7781,7 +7781,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>OTATITLÁN</t>
+          <t>Otatitlán</t>
         </is>
       </c>
       <c r="C560">
@@ -7794,7 +7794,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C561">
@@ -7807,7 +7807,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C562">
@@ -7820,7 +7820,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C563">
@@ -7833,7 +7833,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C564">
@@ -7846,7 +7846,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>TAMIAHUA</t>
+          <t>Tamiahua</t>
         </is>
       </c>
       <c r="C565">
@@ -7859,7 +7859,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C566">
@@ -7872,7 +7872,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>TEPETLÁN</t>
+          <t>Tepetlán</t>
         </is>
       </c>
       <c r="C567">
@@ -7885,7 +7885,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C568">
@@ -7898,7 +7898,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C569">
@@ -7911,7 +7911,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C570">
@@ -7924,7 +7924,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C571">
@@ -7937,7 +7937,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C572">
@@ -7950,7 +7950,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>TLAQUILPA</t>
+          <t>Tlaquilpa</t>
         </is>
       </c>
       <c r="C573">
@@ -7963,7 +7963,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>TRES VALLES</t>
+          <t>Tres Valles</t>
         </is>
       </c>
       <c r="C574">
@@ -7976,7 +7976,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C575">
@@ -7989,7 +7989,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C576">
@@ -8002,7 +8002,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C577">
@@ -8015,7 +8015,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C578">
@@ -8028,7 +8028,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C579">
@@ -8041,7 +8041,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C580">
@@ -8054,7 +8054,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C581">
@@ -8067,12 +8067,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>BUCTZOTZ</t>
+          <t>Buctzotz</t>
         </is>
       </c>
       <c r="C582">
@@ -8085,7 +8085,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C583">
@@ -8098,12 +8098,12 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>EL PLATEADO DE JOAQUÍN AMARO</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C584">
@@ -8116,7 +8116,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C585">
@@ -8129,7 +8129,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C586">
@@ -8142,7 +8142,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C587">
@@ -8155,7 +8155,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C588">
@@ -8168,7 +8168,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C589">
@@ -8181,7 +8181,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>JUCHIPILA</t>
+          <t>Juchipila</t>
         </is>
       </c>
       <c r="C590">
@@ -8194,7 +8194,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C591">
@@ -8207,7 +8207,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>MIGUEL AUZA</t>
+          <t>Miguel Auza</t>
         </is>
       </c>
       <c r="C592">
@@ -8220,7 +8220,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>MONTE ESCOBEDO</t>
+          <t>Monte Escobedo</t>
         </is>
       </c>
       <c r="C593">
@@ -8233,7 +8233,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C594">
@@ -8246,7 +8246,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C595">
@@ -8259,7 +8259,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C596">
@@ -8272,7 +8272,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C597">
@@ -8285,7 +8285,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C598">
@@ -8298,7 +8298,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C599">
@@ -8311,7 +8311,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C600">
@@ -8324,7 +8324,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C601">
@@ -8337,7 +8337,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C602">
@@ -8350,7 +8350,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>VILLA GONZÁLEZ ORTEGA</t>
+          <t>Villa González Ortega</t>
         </is>
       </c>
       <c r="C603">
@@ -8363,7 +8363,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C604">
@@ -8376,7 +8376,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C605">
@@ -8389,7 +8389,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C606">
@@ -8402,7 +8402,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C607">
@@ -8415,7 +8415,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C608">
@@ -8423,41 +8423,6 @@
       </c>
       <c r="D608">
         <v>1</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/IOWA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/IOWA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>San Francisco De Los Romo</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Campeche</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Amatán</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Bochil</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Montecristo De Guerrero</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Pueblo Nuevo Solistahuacán</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>San Andrés Duraznal</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tumbalá</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Manuel Benavides</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Riva Palacio</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -1242,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1286,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1299,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1312,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1325,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1338,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1351,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1364,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1377,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1390,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1403,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -1416,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1429,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1442,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1455,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1486,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1499,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1512,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1525,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1538,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -1551,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1564,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Colima</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Coquimatlán</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2021,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2060,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2073,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -2086,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Xonacatlán</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2390,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2403,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2416,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2429,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2442,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2455,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2468,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -2481,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2494,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2507,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>León</t>
@@ -2520,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2533,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2546,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -2559,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2572,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -2585,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2598,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2746,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2759,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -2772,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2785,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -2798,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2811,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2824,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -2837,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2850,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2863,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -2876,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2889,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -2902,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2915,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -2928,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -2941,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -2954,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -2967,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2980,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2993,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3006,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -3019,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3032,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -3045,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtémoc</t>
@@ -3058,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -3071,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Marquelia</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3362,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Acaxochitlán</t>
@@ -3375,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Agua Blanca De Iturbide</t>
@@ -3388,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -3401,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -3414,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3427,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3440,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Juárez Hidalgo</t>
@@ -3453,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -3466,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3479,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3492,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -3505,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3518,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -3531,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Singuilucan</t>
@@ -3544,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -3557,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -3570,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3583,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Zempoala</t>
@@ -3596,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -3609,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3640,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Amacueca</t>
@@ -3653,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -3666,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -3679,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -3692,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -3705,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -3718,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -3731,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -3744,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -3757,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3770,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -3783,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -3796,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -3809,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Etzatlán</t>
@@ -3822,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Guachinango</t>
@@ -3835,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3848,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -3861,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -3874,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -3887,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -3900,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Juanacatlán</t>
@@ -3913,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -3926,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Mexticacán</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Mixtlán</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -4043,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -4056,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -4069,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -4082,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>San Ignacio Cerro Gordo</t>
@@ -4095,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Martín De Bolaños</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4134,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4147,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>San Sebastián Del Oeste</t>
@@ -4160,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -4173,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4186,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Tenamaxtlán</t>
@@ -4199,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4212,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -4225,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -4238,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -4251,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Totatiche</t>
@@ -4264,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -4277,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -4290,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4303,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -4316,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -4329,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4342,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -4355,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -4368,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4399,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4412,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -4425,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -4438,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -4451,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Cojumatlán De Régules</t>
@@ -4464,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4477,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -4490,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -4503,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4516,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -4529,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -4542,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -4555,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -4568,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4581,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4594,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4607,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4620,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -4633,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -4646,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Numarán</t>
@@ -4659,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -4672,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -4685,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -4698,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -4711,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -4724,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -4737,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -4750,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -4763,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -4776,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -4789,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -4802,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4815,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -4828,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -4841,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -4854,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -4867,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -4880,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -4893,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -4906,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4937,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4950,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -4963,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -4976,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -4989,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -5002,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -5015,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -5028,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -5041,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -5054,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5085,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Amatlán De Cañas</t>
@@ -5098,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -5111,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -5124,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -5137,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -5150,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -5163,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -5176,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -5189,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5220,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -5303,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>La Compañía</t>
@@ -5316,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -5329,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5342,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Nazareno Etla</t>
@@ -5355,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5368,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -5381,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>San Agustín Amatengo</t>
@@ -5394,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>San Agustín Atenango</t>
@@ -5407,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>San Andrés Teotilálpam</t>
@@ -5420,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>San Antonino El Alto</t>
@@ -5433,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>San Antonio Huitepec</t>
@@ -5446,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>San Gabriel Mixtepec</t>
@@ -5459,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>San Jerónimo Silacayoapilla</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>San José Chiltepec</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>San Juan Bautista Tlacoatzintepec</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5511,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -5524,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>San Juan Cacahuatepec</t>
@@ -5537,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>San Juan Juquila Mixes</t>
@@ -5550,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -5563,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>San Miguel Quetzaltepec</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>San Miguel Suchixtepec</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>San Pablo Cuatro Venados</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>San Pedro Amuzgos</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>San Pedro Yólox</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Santa Ana</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Santa Cruz Tacache De Mina</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Santa María Chimalapa</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Santiago Ayuquililla</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -5849,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -5862,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Santiago Niltepec</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Trinidad Zaachila</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Villa De Tamazulápam Del Progreso</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Villa De Tututepec</t>
@@ -6018,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -6031,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -6044,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -6057,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6088,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Ahuazotepec</t>
@@ -6101,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -6114,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -6127,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -6140,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Atoyatempan</t>
@@ -6153,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -6166,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -6179,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Chiconcuautla</t>
@@ -6192,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -6205,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>General Felipe Ángeles</t>
@@ -6218,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -6231,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -6244,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -6257,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -6270,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -6283,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Juan Galindo</t>
@@ -6296,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Juan N. Méndez</t>
@@ -6309,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -6322,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -6335,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -6348,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -6361,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -6374,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -6387,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>San Matías Tlalancaleca</t>
@@ -6400,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -6413,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -6426,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -6439,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -6452,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -6465,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -6478,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -6491,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -6504,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -6517,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6530,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -6543,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6574,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -6587,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -6600,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -6613,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -6626,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -6639,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6652,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6665,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -6678,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6709,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -6722,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -6735,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6748,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -6761,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -6774,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Matlapa</t>
@@ -6787,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -6800,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -6813,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -6826,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -6839,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6852,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -6865,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -6878,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6909,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -6922,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -6935,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -6948,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -6961,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -6974,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7005,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -7018,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -7031,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7062,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -7075,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -7088,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7101,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -7114,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -7127,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7158,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -7171,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>González</t>
@@ -7184,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -7197,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -7210,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -7223,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Miquihuana</t>
@@ -7236,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -7249,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -7262,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -7275,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -7288,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7301,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -7314,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -7327,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -7340,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7371,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -7384,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7397,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7428,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Atzacan</t>
@@ -7441,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Ayahualulco</t>
@@ -7454,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -7467,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Colipa</t>
@@ -7480,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -7493,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -7506,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -7519,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -7532,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -7545,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7558,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -7571,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -7584,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -7597,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -7610,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -7623,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -7636,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -7649,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -7662,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -7675,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -7688,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -7701,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -7714,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Naolinco</t>
@@ -7727,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -7740,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -7753,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -7766,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -7779,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -7792,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -7805,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -7818,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -7831,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -7844,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Tamiahua</t>
@@ -7857,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -7870,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Tepetlán</t>
@@ -7883,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -7896,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -7909,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -7922,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -7935,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -7948,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -7961,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -7974,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -7987,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -8000,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -8013,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -8026,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -8039,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -8052,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8083,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8114,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -8127,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -8140,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -8153,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -8166,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -8179,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -8192,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -8205,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -8218,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -8231,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -8244,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -8257,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -8270,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -8283,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -8296,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -8309,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -8322,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -8335,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -8348,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -8361,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -8374,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -8387,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -8400,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Total</t>
